--- a/bots/crawl_ch/output/electronics_2022-09-06.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-09-06.xlsx
@@ -513,17 +513,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4090846</t>
+          <t>4090845</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix Garantie Batterien AAA/LR03 10 Stück</t>
+          <t>Prix Garantie Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/prix-garantie-batterien-aaalr03-10-stueck/p/4090846</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/prix-garantie-batterien-aalr6-10-stueck/p/4090845</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -544,12 +544,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.47/1ST</t>
+          <t>0.48/1ST</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -569,34 +569,34 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Prix Garantie Batterien AAA/LR03 10 Stück 4.70 Schweizer Franken</t>
+          <t>Prix Garantie Batterien AA/LR6 10 Stück 4.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4090845</t>
+          <t>4090846</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix Garantie Batterien AA/LR6 10 Stück</t>
+          <t>Prix Garantie Batterien AAA/LR03 10 Stück</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/prix-garantie-batterien-aalr6-10-stueck/p/4090845</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/prix-garantie-batterien-aaalr03-10-stueck/p/4090846</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -617,12 +617,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.48/1ST</t>
+          <t>0.47/1ST</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -642,17 +642,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Prix Garantie Batterien AA/LR6 10 Stück 4.75 Schweizer Franken</t>
+          <t>Prix Garantie Batterien AAA/LR03 10 Stück 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -1593,29 +1593,29 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6753556</t>
+          <t>7032801</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 4 Stück</t>
+          <t>Duracell Batterien Plus AA/LR6 16 Stück</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-4-stueck/p/6753556</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-16-stueck/p/7032801</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>16ST</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1629,12 +1629,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AA/LR6 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -1735,50 +1735,48 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4014527</t>
+          <t>6753556</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
+          <t>Duracell Batterien PLUS AA/LR6 4 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-4-stueck/p/6753556</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.60/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1788,7 +1786,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1803,29 +1801,29 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AA/LR6 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7032801</t>
+          <t>7032804</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 16 Stück</t>
+          <t>Duracell Batterien Plus AAA/LR03 16 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-16-stueck/p/7032801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-16-stueck/p/7032804</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1869,46 +1867,46 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AAA/LR03 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3494066</t>
+          <t>4014527</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1917,12 +1915,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8.95/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1932,7 +1930,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1942,34 +1940,34 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>3494066</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Varta Longlife Power 9V 1er Bli</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1978,10 +1976,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1990,12 +1988,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>8.95/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2005,7 +2003,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2020,53 +2018,55 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7032804</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 16 Stück</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-16-stueck/p/7032804</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16ST</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 16 Stück 50% Aktion 19.90 Schweizer Franken statt 39.80 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -2869,24 +2869,24 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3494065</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2907,12 +2907,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2932,141 +2932,141 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>3494065</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>Varta Longlife Max Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2.49/1ST</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -3329,12 +3329,12 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück) 17.95 Schweizer Franken</t>
+          <t>Miele FJM HyClean 3D (4 Stück) 50% Aktion 8.95 Schweizer Franken statt 17.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -3673,24 +3673,24 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3700,12 +3700,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3714,141 +3714,141 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>5.95/1ST</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>5.95/1ST</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -4107,41 +4107,39 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>6670192</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>Philips Wasserkocher HD9318/01</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>99.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -4155,44 +4153,46 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
+          <t>Philips Wasserkocher HD9318/01 50% Aktion 24.95 Schweizer Franken statt 49.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6670192</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>49.90</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -4206,12 +4206,12 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -4548,158 +4548,152 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>44.95</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1.99/1ST</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1.99/1ST</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>6805078</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Varta Premium Light F20</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-light-f20/p/6805078</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -4708,62 +4702,50 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>3.74/1ST</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Premium Light F20 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
@@ -4772,63 +4754,81 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>3.74/1ST</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6700107</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Miele</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>389.00</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4842,108 +4842,92 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 389.00 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>6700107</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Miele</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>194.65</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 49% Aktion 194.65 Schweizer Franken statt 389.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6805078</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Varta Premium Light F20</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/varta-premium-light-f20/p/6805078</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4952,26 +4936,42 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Varta Premium Light F20 39.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5017,12 +5017,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Militärtaschenlampe LED 8.95 Schweizer Franken</t>
+          <t>Militärtaschenlampe LED - Online kein Bestand 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -5068,12 +5068,12 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 149.00 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>124.50</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5119,12 +5119,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 249.00 Schweizer Franken</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 50% Aktion 124.50 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5223,12 +5223,12 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 19.95 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-09-06 07:17:22</t>
+          <t>2022-09-06 20:59:38</t>
         </is>
       </c>
     </row>
